--- a/Code/Results/Cases/Case_5_115/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_115/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9034464341627881</v>
+        <v>0.5528496190355554</v>
       </c>
       <c r="C2">
-        <v>0.1041235983658453</v>
+        <v>0.08710290462145309</v>
       </c>
       <c r="D2">
-        <v>0.07094947236515026</v>
+        <v>0.1136814390381389</v>
       </c>
       <c r="E2">
-        <v>0.05025992516512545</v>
+        <v>0.1308403623878416</v>
       </c>
       <c r="F2">
-        <v>0.908863305626106</v>
+        <v>2.013411602932912</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.5709039642290819</v>
+        <v>1.327276427429759</v>
       </c>
       <c r="J2">
-        <v>0.07122824587093035</v>
+        <v>0.1826122813970699</v>
       </c>
       <c r="K2">
-        <v>0.8239073858308075</v>
+        <v>0.3330071155306484</v>
       </c>
       <c r="L2">
-        <v>0.1564129274024921</v>
+        <v>0.2848554801962919</v>
       </c>
       <c r="M2">
-        <v>0.19470442494681</v>
+        <v>0.1863783687266007</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.402698388287348</v>
+        <v>5.381132015498892</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7862223180802062</v>
+        <v>0.5198161574482185</v>
       </c>
       <c r="C3">
-        <v>0.09806115268665394</v>
+        <v>0.08495753218657143</v>
       </c>
       <c r="D3">
-        <v>0.0642993946641468</v>
+        <v>0.1123014610692863</v>
       </c>
       <c r="E3">
-        <v>0.04984269668580232</v>
+        <v>0.1312754649252259</v>
       </c>
       <c r="F3">
-        <v>0.9042959543819791</v>
+        <v>2.023880063854151</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.5813326919044144</v>
+        <v>1.337344355234691</v>
       </c>
       <c r="J3">
-        <v>0.07306872239937334</v>
+        <v>0.1837058974392063</v>
       </c>
       <c r="K3">
-        <v>0.7171344078911943</v>
+        <v>0.3011939872233</v>
       </c>
       <c r="L3">
-        <v>0.1446491066629108</v>
+        <v>0.2829682393675839</v>
       </c>
       <c r="M3">
-        <v>0.1712219845562863</v>
+        <v>0.1803741292745791</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.415288594462481</v>
+        <v>5.416023019337203</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7143977415591394</v>
+        <v>0.4996749214243721</v>
       </c>
       <c r="C4">
-        <v>0.09433031090855337</v>
+        <v>0.08362541347539576</v>
       </c>
       <c r="D4">
-        <v>0.06025519701719162</v>
+        <v>0.1114903008318038</v>
       </c>
       <c r="E4">
-        <v>0.04963067391505405</v>
+        <v>0.1315773510262073</v>
       </c>
       <c r="F4">
-        <v>0.9028365091901023</v>
+        <v>2.03112508059894</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.588591877536782</v>
+        <v>1.344034547124469</v>
       </c>
       <c r="J4">
-        <v>0.07425359589618807</v>
+        <v>0.1844162566822911</v>
       </c>
       <c r="K4">
-        <v>0.6516145450005979</v>
+        <v>0.2816919988138693</v>
       </c>
       <c r="L4">
-        <v>0.1375485813275148</v>
+        <v>0.2819061833776288</v>
       </c>
       <c r="M4">
-        <v>0.1568759726391882</v>
+        <v>0.1767492342256602</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.426809908332331</v>
+        <v>5.43966723919138</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.685157937469512</v>
+        <v>0.491503434855133</v>
       </c>
       <c r="C5">
-        <v>0.0928073594610197</v>
+        <v>0.08307885008617433</v>
       </c>
       <c r="D5">
-        <v>0.05861641438410459</v>
+        <v>0.1111688939081148</v>
       </c>
       <c r="E5">
-        <v>0.04955517099687867</v>
+        <v>0.1317091284700211</v>
       </c>
       <c r="F5">
-        <v>0.9025694902963437</v>
+        <v>2.034283263114084</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.5917596335467472</v>
+        <v>1.346888820318519</v>
       </c>
       <c r="J5">
-        <v>0.07475010927476866</v>
+        <v>0.1847155255154149</v>
       </c>
       <c r="K5">
-        <v>0.6249166632819794</v>
+        <v>0.2737532130160787</v>
       </c>
       <c r="L5">
-        <v>0.1346843964513198</v>
+        <v>0.2814978089924693</v>
       </c>
       <c r="M5">
-        <v>0.151046037510401</v>
+        <v>0.1752877284184251</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.432428917110528</v>
+        <v>5.449861444732804</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6803042116068809</v>
+        <v>0.4901487735343437</v>
       </c>
       <c r="C6">
-        <v>0.09255430408428111</v>
+        <v>0.08298786992234852</v>
       </c>
       <c r="D6">
-        <v>0.05834483983608152</v>
+        <v>0.1111160786887382</v>
       </c>
       <c r="E6">
-        <v>0.04954328616898707</v>
+        <v>0.1317315395535541</v>
       </c>
       <c r="F6">
-        <v>0.9025446477128938</v>
+        <v>2.034820112912207</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.5922981346385328</v>
+        <v>1.347370502356842</v>
       </c>
       <c r="J6">
-        <v>0.07483337715776983</v>
+        <v>0.1847658107512311</v>
       </c>
       <c r="K6">
-        <v>0.6204833996456784</v>
+        <v>0.2724355088291901</v>
       </c>
       <c r="L6">
-        <v>0.1342105310342205</v>
+        <v>0.2814314767602895</v>
       </c>
       <c r="M6">
-        <v>0.1500789021118116</v>
+        <v>0.1750459971017868</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.433416924254558</v>
+        <v>5.451587961510413</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7140032960080021</v>
+        <v>0.4995645703204161</v>
       </c>
       <c r="C7">
-        <v>0.09430978299457138</v>
+        <v>0.08361805734098482</v>
       </c>
       <c r="D7">
-        <v>0.06023305901897658</v>
+        <v>0.1114859291125967</v>
       </c>
       <c r="E7">
-        <v>0.04962961179540315</v>
+        <v>0.1315790927379528</v>
       </c>
       <c r="F7">
-        <v>0.902831594671035</v>
+        <v>2.031166839424813</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.5886337577028442</v>
+        <v>1.344072522572496</v>
       </c>
       <c r="J7">
-        <v>0.07426023685739214</v>
+        <v>0.1844202530587307</v>
       </c>
       <c r="K7">
-        <v>0.6512544900218131</v>
+        <v>0.2815848987151952</v>
       </c>
       <c r="L7">
-        <v>0.1375098370337113</v>
+        <v>0.2819005768786695</v>
       </c>
       <c r="M7">
-        <v>0.156797285144016</v>
+        <v>0.1767294602136253</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.426881984804282</v>
+        <v>5.439802457798777</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8629906303844166</v>
+        <v>0.5414307117534918</v>
       </c>
       <c r="C8">
-        <v>0.1020347312859968</v>
+        <v>0.08636627417642018</v>
       </c>
       <c r="D8">
-        <v>0.0686481001382262</v>
+        <v>0.1131981527470032</v>
       </c>
       <c r="E8">
-        <v>0.05010677319826407</v>
+        <v>0.1309831909214676</v>
       </c>
       <c r="F8">
-        <v>0.9070028904347254</v>
+        <v>2.016851639868669</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.5743186731976415</v>
+        <v>1.330642389776742</v>
       </c>
       <c r="J8">
-        <v>0.07185139496090898</v>
+        <v>0.1829813016903303</v>
       </c>
       <c r="K8">
-        <v>0.7870790348459593</v>
+        <v>0.3220317433144544</v>
       </c>
       <c r="L8">
-        <v>0.1523304254866247</v>
+        <v>0.2841847456795605</v>
       </c>
       <c r="M8">
-        <v>0.1865914299936335</v>
+        <v>0.1842953793334026</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.406234668863263</v>
+        <v>5.392701765992072</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.156791789194727</v>
+        <v>0.6246275756859347</v>
       </c>
       <c r="C9">
-        <v>0.1171395635872514</v>
+        <v>0.09163701885118058</v>
       </c>
       <c r="D9">
-        <v>0.0854858100500735</v>
+        <v>0.1168404206393703</v>
       </c>
       <c r="E9">
-        <v>0.05140268178764096</v>
+        <v>0.1300892273501493</v>
       </c>
       <c r="F9">
-        <v>0.926351560460013</v>
+        <v>1.995254335404695</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.5533046590577726</v>
+        <v>1.308335210573723</v>
       </c>
       <c r="J9">
-        <v>0.06756791261851092</v>
+        <v>0.1804672160894434</v>
       </c>
       <c r="K9">
-        <v>1.054130429093959</v>
+        <v>0.4015774117172555</v>
       </c>
       <c r="L9">
-        <v>0.1824369409157498</v>
+        <v>0.2894273881682281</v>
       </c>
       <c r="M9">
-        <v>0.2456896532299098</v>
+        <v>0.1996164312810258</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.397211876636021</v>
+        <v>5.31793894769794</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.374308177376463</v>
+        <v>0.6863944578096834</v>
       </c>
       <c r="C10">
-        <v>0.12824640131835</v>
+        <v>0.09543664501082105</v>
       </c>
       <c r="D10">
-        <v>0.09810142888288453</v>
+        <v>0.1196872440471637</v>
       </c>
       <c r="E10">
-        <v>0.05258887143553537</v>
+        <v>0.1295985569413904</v>
       </c>
       <c r="F10">
-        <v>0.9481057571462941</v>
+        <v>1.983320862852821</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.5425576487163966</v>
+        <v>1.294395729772038</v>
       </c>
       <c r="J10">
-        <v>0.06469683567303175</v>
+        <v>0.1788066158602808</v>
       </c>
       <c r="K10">
-        <v>1.25135247915938</v>
+        <v>0.4601389985057551</v>
       </c>
       <c r="L10">
-        <v>0.2052991140208036</v>
+        <v>0.2937398086164222</v>
       </c>
       <c r="M10">
-        <v>0.2896676438491994</v>
+        <v>0.2111619338696968</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.411800041901103</v>
+        <v>5.273714109866091</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.473780929925766</v>
+        <v>0.7146279456864875</v>
       </c>
       <c r="C11">
-        <v>0.133309931622307</v>
+        <v>0.09714929256604421</v>
       </c>
       <c r="D11">
-        <v>0.1039033301160401</v>
+        <v>0.1210188971619601</v>
       </c>
       <c r="E11">
-        <v>0.05318273260351347</v>
+        <v>0.1294111435265215</v>
       </c>
       <c r="F11">
-        <v>0.959811241988497</v>
+        <v>1.97874356194832</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.5387790392702314</v>
+        <v>1.288584795770603</v>
       </c>
       <c r="J11">
-        <v>0.06345242213195146</v>
+        <v>0.1780914321349654</v>
       </c>
       <c r="K11">
-        <v>1.341437127551217</v>
+        <v>0.4868021117781041</v>
       </c>
       <c r="L11">
-        <v>0.2158863400801181</v>
+        <v>0.2958007054223231</v>
       </c>
       <c r="M11">
-        <v>0.3098311217575471</v>
+        <v>0.2164758458219964</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.423523620732965</v>
+        <v>5.255913687310425</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.511537636795737</v>
+        <v>0.7253381207083862</v>
       </c>
       <c r="C12">
-        <v>0.1352297030950211</v>
+        <v>0.09779553660769125</v>
       </c>
       <c r="D12">
-        <v>0.1061102370352955</v>
+        <v>0.1215283726898377</v>
       </c>
       <c r="E12">
-        <v>0.05341571211968521</v>
+        <v>0.1293452998322309</v>
       </c>
       <c r="F12">
-        <v>0.9645192522652621</v>
+        <v>1.977132440150825</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.537516015953571</v>
+        <v>1.286460482489915</v>
       </c>
       <c r="J12">
-        <v>0.06299022456981529</v>
+        <v>0.1778263792149257</v>
       </c>
       <c r="K12">
-        <v>1.375614950396539</v>
+        <v>0.4969016026969086</v>
       </c>
       <c r="L12">
-        <v>0.2199245563538739</v>
+        <v>0.2965952782312655</v>
       </c>
       <c r="M12">
-        <v>0.3174922513356364</v>
+        <v>0.2184968436715096</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.428737351595316</v>
+        <v>5.249505954808399</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.503401895705395</v>
+        <v>0.7230306695232116</v>
       </c>
       <c r="C13">
-        <v>0.1348161301783932</v>
+        <v>0.09765645898420416</v>
       </c>
       <c r="D13">
-        <v>0.1056344887322496</v>
+        <v>0.1214184173467743</v>
       </c>
       <c r="E13">
-        <v>0.05336517080218428</v>
+        <v>0.1293592528261254</v>
       </c>
       <c r="F13">
-        <v>0.963492797040999</v>
+        <v>1.977473992442242</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.5377804290889188</v>
+        <v>1.28691460536497</v>
       </c>
       <c r="J13">
-        <v>0.06308936245627006</v>
+        <v>0.1778832066243519</v>
       </c>
       <c r="K13">
-        <v>1.36825106769524</v>
+        <v>0.4947263836167224</v>
       </c>
       <c r="L13">
-        <v>0.2190535257454655</v>
+        <v>0.2964235248021225</v>
       </c>
       <c r="M13">
-        <v>0.3158410991236522</v>
+        <v>0.2180611995747768</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.427579335786731</v>
+        <v>5.250871174795378</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.476885343291542</v>
+        <v>0.7155087061835843</v>
       </c>
       <c r="C14">
-        <v>0.1334678213560352</v>
+        <v>0.09720250565034405</v>
       </c>
       <c r="D14">
-        <v>0.1040846914765154</v>
+        <v>0.1210607079906083</v>
       </c>
       <c r="E14">
-        <v>0.05320173593645094</v>
+        <v>0.1294056239229224</v>
       </c>
       <c r="F14">
-        <v>0.9601929628711545</v>
+        <v>1.97860856608122</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.538671716701316</v>
+        <v>1.288408501318621</v>
       </c>
       <c r="J14">
-        <v>0.06341421478383946</v>
+        <v>0.1780695104772843</v>
       </c>
       <c r="K14">
-        <v>1.344247589324311</v>
+        <v>0.4876329512115944</v>
       </c>
       <c r="L14">
-        <v>0.2162179712239833</v>
+        <v>0.2958657922866337</v>
       </c>
       <c r="M14">
-        <v>0.3104608754424945</v>
+        <v>0.2166419403486657</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.423936785508971</v>
+        <v>5.255379849628611</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.460655128476844</v>
+        <v>0.7109037093407835</v>
       </c>
       <c r="C15">
-        <v>0.1326422688232327</v>
+        <v>0.09692414611272682</v>
       </c>
       <c r="D15">
-        <v>0.103136703495764</v>
+        <v>0.1208422771069309</v>
       </c>
       <c r="E15">
-        <v>0.05310269090913167</v>
+        <v>0.1294346944365472</v>
       </c>
       <c r="F15">
-        <v>0.9582080519759799</v>
+        <v>1.97931943328873</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.5392397679401952</v>
+        <v>1.289333471760159</v>
       </c>
       <c r="J15">
-        <v>0.06361437800980241</v>
+        <v>0.178184378201685</v>
       </c>
       <c r="K15">
-        <v>1.329553561914082</v>
+        <v>0.4832883597726152</v>
       </c>
       <c r="L15">
-        <v>0.2144849635789114</v>
+        <v>0.2955260054957876</v>
       </c>
       <c r="M15">
-        <v>0.3071687666176217</v>
+        <v>0.2157737360817862</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.421807765553552</v>
+        <v>5.258184885502516</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.36781904512705</v>
+        <v>0.6845519975019556</v>
       </c>
       <c r="C16">
-        <v>0.1279157708307821</v>
+        <v>0.09532439910377377</v>
       </c>
       <c r="D16">
-        <v>0.09772359533091191</v>
+        <v>0.1196009492592367</v>
       </c>
       <c r="E16">
-        <v>0.05255117783532626</v>
+        <v>0.1296115232896575</v>
       </c>
       <c r="F16">
-        <v>0.9473784640212841</v>
+        <v>1.983637112304081</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.5428276202195228</v>
+        <v>1.294786150083844</v>
       </c>
       <c r="J16">
-        <v>0.06477941588274749</v>
+        <v>0.1788541631946803</v>
       </c>
       <c r="K16">
-        <v>1.245473625492906</v>
+        <v>0.4583969175753282</v>
       </c>
       <c r="L16">
-        <v>0.2046111602551832</v>
+        <v>0.2936071106553229</v>
       </c>
       <c r="M16">
-        <v>0.2883533364606308</v>
+        <v>0.2108158878356079</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.411139837658141</v>
+        <v>5.27492401461538</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.311010333748897</v>
+        <v>0.668420256885554</v>
       </c>
       <c r="C17">
-        <v>0.1250195394750193</v>
+        <v>0.09433893726060205</v>
       </c>
       <c r="D17">
-        <v>0.09441951218634159</v>
+        <v>0.1188487722466789</v>
       </c>
       <c r="E17">
-        <v>0.05222694356077895</v>
+        <v>0.1297291546489259</v>
       </c>
       <c r="F17">
-        <v>0.9412088126544944</v>
+        <v>1.986503754494471</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.5453186888500134</v>
+        <v>1.298266931834799</v>
       </c>
       <c r="J17">
-        <v>0.06551003707058634</v>
+        <v>0.1792753491491634</v>
       </c>
       <c r="K17">
-        <v>1.19399559802136</v>
+        <v>0.4431323405392504</v>
       </c>
       <c r="L17">
-        <v>0.1986033161698657</v>
+        <v>0.2924552538720206</v>
       </c>
       <c r="M17">
-        <v>0.2768531233419509</v>
+        <v>0.2077901294716895</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.405927935566808</v>
+        <v>5.285786271864851</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.278383888188472</v>
+        <v>0.6591544952546826</v>
       </c>
       <c r="C18">
-        <v>0.1233546887693109</v>
+        <v>0.09377063787370332</v>
       </c>
       <c r="D18">
-        <v>0.0925249696041206</v>
+        <v>0.1184195901471696</v>
       </c>
       <c r="E18">
-        <v>0.05204554089039881</v>
+        <v>0.1298001835782081</v>
       </c>
       <c r="F18">
-        <v>0.9378295349405263</v>
+        <v>1.98823271193433</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.5468554678436774</v>
+        <v>1.300318895761542</v>
       </c>
       <c r="J18">
-        <v>0.06593606349522751</v>
+        <v>0.1795213917705087</v>
       </c>
       <c r="K18">
-        <v>1.164420613660582</v>
+        <v>0.434354773542708</v>
       </c>
       <c r="L18">
-        <v>0.1951652374329385</v>
+        <v>0.2918020753815966</v>
       </c>
       <c r="M18">
-        <v>0.2702531549991321</v>
+        <v>0.2060556197747232</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.403406317618504</v>
+        <v>5.292252128308036</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.26734506174833</v>
+        <v>0.6560194856732835</v>
       </c>
       <c r="C19">
-        <v>0.1227911463633262</v>
+        <v>0.09357796664545504</v>
       </c>
       <c r="D19">
-        <v>0.09188449631914608</v>
+        <v>0.1182748708207342</v>
       </c>
       <c r="E19">
-        <v>0.05198498627726522</v>
+        <v>0.1298248122954622</v>
       </c>
       <c r="F19">
-        <v>0.9367140064467634</v>
+        <v>1.988831877933478</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.5473934123410373</v>
+        <v>1.301022230130979</v>
       </c>
       <c r="J19">
-        <v>0.06608129858964062</v>
+        <v>0.1796053485160636</v>
       </c>
       <c r="K19">
-        <v>1.154412491021077</v>
+        <v>0.4313832381510281</v>
       </c>
       <c r="L19">
-        <v>0.1940041007973505</v>
+        <v>0.2915825274860495</v>
       </c>
       <c r="M19">
-        <v>0.2680209475966429</v>
+        <v>0.205469349957589</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.402633059883442</v>
+        <v>5.294478839225519</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.317052613341048</v>
+        <v>0.670136189742351</v>
       </c>
       <c r="C20">
-        <v>0.1253277411009748</v>
+        <v>0.0944439955071914</v>
       </c>
       <c r="D20">
-        <v>0.0947706234658483</v>
+        <v>0.1189284861115425</v>
       </c>
       <c r="E20">
-        <v>0.05226093015053657</v>
+        <v>0.1297162839143606</v>
       </c>
       <c r="F20">
-        <v>0.9418479491497891</v>
+        <v>1.986190302819999</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.5450426908221822</v>
+        <v>1.297891231735406</v>
       </c>
       <c r="J20">
-        <v>0.0654316605093106</v>
+        <v>0.1792301212821172</v>
       </c>
       <c r="K20">
-        <v>1.199471938628363</v>
+        <v>0.4447570558962752</v>
       </c>
       <c r="L20">
-        <v>0.1992410377238443</v>
+        <v>0.2925769051777038</v>
       </c>
       <c r="M20">
-        <v>0.2780758034509461</v>
+        <v>0.2081116247029868</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.406433173101959</v>
+        <v>5.284607388649306</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.484671384403754</v>
+        <v>0.7177175854833138</v>
       </c>
       <c r="C21">
-        <v>0.133863783083072</v>
+        <v>0.09733590531202196</v>
       </c>
       <c r="D21">
-        <v>0.1045396305067641</v>
+        <v>0.1211656350372152</v>
       </c>
       <c r="E21">
-        <v>0.05324951852462156</v>
+        <v>0.1293918646694561</v>
       </c>
       <c r="F21">
-        <v>0.9611546039078291</v>
+        <v>1.978271999448111</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.5384053004614486</v>
+        <v>1.287967641517113</v>
       </c>
       <c r="J21">
-        <v>0.06331855117933749</v>
+        <v>0.1780146319871667</v>
       </c>
       <c r="K21">
-        <v>1.351296137223386</v>
+        <v>0.4897163942838745</v>
       </c>
       <c r="L21">
-        <v>0.2170500356475031</v>
+        <v>0.2960292284740973</v>
       </c>
       <c r="M21">
-        <v>0.3120404563929426</v>
+        <v>0.2170585753449856</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.424985323260188</v>
+        <v>5.254046510705138</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.594742818473094</v>
+        <v>0.7489238328769545</v>
       </c>
       <c r="C22">
-        <v>0.139456505817634</v>
+        <v>0.09921252784080536</v>
       </c>
       <c r="D22">
-        <v>0.1109820774703394</v>
+        <v>0.1226580668540151</v>
       </c>
       <c r="E22">
-        <v>0.05394296447776981</v>
+        <v>0.1292097044650387</v>
       </c>
       <c r="F22">
-        <v>0.9753856154463563</v>
+        <v>1.973809122807992</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.5350499528066166</v>
+        <v>1.281925890437329</v>
       </c>
       <c r="J22">
-        <v>0.06199025995490892</v>
+        <v>0.1772538747357819</v>
       </c>
       <c r="K22">
-        <v>1.450905413809977</v>
+        <v>0.5191156730864463</v>
       </c>
       <c r="L22">
-        <v>0.2288597544925892</v>
+        <v>0.2983679853818728</v>
       </c>
       <c r="M22">
-        <v>0.3343894103527916</v>
+        <v>0.2229567667279753</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.441645097861226</v>
+        <v>5.236013438279059</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.535943152339513</v>
+        <v>0.7322587263014384</v>
       </c>
       <c r="C23">
-        <v>0.1364700285730009</v>
+        <v>0.09821217356642364</v>
       </c>
       <c r="D23">
-        <v>0.1075380541636974</v>
+        <v>0.1218587723577258</v>
       </c>
       <c r="E23">
-        <v>0.05356842501497994</v>
+        <v>0.1293042011182202</v>
       </c>
       <c r="F23">
-        <v>0.9676373847122619</v>
+        <v>1.976125948625921</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.5367480118666279</v>
+        <v>1.285109897716268</v>
       </c>
       <c r="J23">
-        <v>0.06269430897992123</v>
+        <v>0.1776568320400127</v>
       </c>
       <c r="K23">
-        <v>1.397702833832795</v>
+        <v>0.5034234749898019</v>
       </c>
       <c r="L23">
-        <v>0.2225403334154947</v>
+        <v>0.2971122351566606</v>
       </c>
       <c r="M23">
-        <v>0.3224464878428108</v>
+        <v>0.2198041893445648</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.432323673662069</v>
+        <v>5.245460622178598</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.314320794950049</v>
+        <v>0.6693603896849822</v>
       </c>
       <c r="C24">
-        <v>0.1251884024810579</v>
+        <v>0.09439650410529055</v>
       </c>
       <c r="D24">
-        <v>0.09461187048324149</v>
+        <v>0.1188924373314677</v>
       </c>
       <c r="E24">
-        <v>0.05224554924929947</v>
+        <v>0.1297220921780049</v>
       </c>
       <c r="F24">
-        <v>0.9415584742156256</v>
+        <v>1.986331762349749</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.545167144244104</v>
+        <v>1.298060927454848</v>
       </c>
       <c r="J24">
-        <v>0.06546707593086953</v>
+        <v>0.179250556660266</v>
       </c>
       <c r="K24">
-        <v>1.196996022327539</v>
+        <v>0.4440225275173191</v>
       </c>
       <c r="L24">
-        <v>0.1989526744119487</v>
+        <v>0.2925218784585795</v>
       </c>
       <c r="M24">
-        <v>0.2775229936868442</v>
+        <v>0.2079662610014665</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.406203279594905</v>
+        <v>5.285139673319719</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.07706965219748</v>
+        <v>0.6020059146132155</v>
       </c>
       <c r="C25">
-        <v>0.113054433692362</v>
+        <v>0.09022388613967536</v>
       </c>
       <c r="D25">
-        <v>0.08089080033388285</v>
+        <v>0.1158248966153437</v>
       </c>
       <c r="E25">
-        <v>0.05101209313194843</v>
+        <v>0.1303018029127507</v>
       </c>
       <c r="F25">
-        <v>0.9198487281140402</v>
+        <v>2.000405168270873</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.5581950874444352</v>
+        <v>1.313939231779162</v>
       </c>
       <c r="J25">
-        <v>0.06867881751950122</v>
+        <v>0.1811145142223447</v>
       </c>
       <c r="K25">
-        <v>0.9817521519241268</v>
+        <v>0.3800357570528092</v>
       </c>
       <c r="L25">
-        <v>0.1741699811625779</v>
+        <v>0.2879278779316721</v>
       </c>
       <c r="M25">
-        <v>0.2296152670089526</v>
+        <v>0.1954204662692653</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.396081292286141</v>
+        <v>5.336282699052873</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_115/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_115/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5528496190355554</v>
+        <v>0.903446434162646</v>
       </c>
       <c r="C2">
-        <v>0.08710290462145309</v>
+        <v>0.1041235983655966</v>
       </c>
       <c r="D2">
-        <v>0.1136814390381389</v>
+        <v>0.07094947236514315</v>
       </c>
       <c r="E2">
-        <v>0.1308403623878416</v>
+        <v>0.05025992516513789</v>
       </c>
       <c r="F2">
-        <v>2.013411602932912</v>
+        <v>0.9088633056261699</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>1.327276427429759</v>
+        <v>0.5709039642290996</v>
       </c>
       <c r="J2">
-        <v>0.1826122813970699</v>
+        <v>0.0712282458708966</v>
       </c>
       <c r="K2">
-        <v>0.3330071155306484</v>
+        <v>0.823907385830779</v>
       </c>
       <c r="L2">
-        <v>0.2848554801962919</v>
+        <v>0.1564129274025348</v>
       </c>
       <c r="M2">
-        <v>0.1863783687266007</v>
+        <v>0.19470442494681</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.381132015498892</v>
+        <v>2.402698388287462</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5198161574482185</v>
+        <v>0.7862223180802914</v>
       </c>
       <c r="C3">
-        <v>0.08495753218657143</v>
+        <v>0.09806115268664684</v>
       </c>
       <c r="D3">
-        <v>0.1123014610692863</v>
+        <v>0.06429939466409706</v>
       </c>
       <c r="E3">
-        <v>0.1312754649252259</v>
+        <v>0.04984269668578634</v>
       </c>
       <c r="F3">
-        <v>2.023880063854151</v>
+        <v>0.9042959543819435</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>1.337344355234691</v>
+        <v>0.5813326919044037</v>
       </c>
       <c r="J3">
-        <v>0.1837058974392063</v>
+        <v>0.07306872239926498</v>
       </c>
       <c r="K3">
-        <v>0.3011939872233</v>
+        <v>0.7171344078911943</v>
       </c>
       <c r="L3">
-        <v>0.2829682393675839</v>
+        <v>0.1446491066628468</v>
       </c>
       <c r="M3">
-        <v>0.1803741292745791</v>
+        <v>0.1712219845562934</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.416023019337203</v>
+        <v>2.415288594462467</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4996749214243721</v>
+        <v>0.7143977415593383</v>
       </c>
       <c r="C4">
-        <v>0.08362541347539576</v>
+        <v>0.09433031090823363</v>
       </c>
       <c r="D4">
-        <v>0.1114903008318038</v>
+        <v>0.0602551970172982</v>
       </c>
       <c r="E4">
-        <v>0.1315773510262073</v>
+        <v>0.04963067391505405</v>
       </c>
       <c r="F4">
-        <v>2.03112508059894</v>
+        <v>0.9028365091901094</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>1.344034547124469</v>
+        <v>0.5885918775367927</v>
       </c>
       <c r="J4">
-        <v>0.1844162566822911</v>
+        <v>0.07425359589603886</v>
       </c>
       <c r="K4">
-        <v>0.2816919988138693</v>
+        <v>0.6516145450005837</v>
       </c>
       <c r="L4">
-        <v>0.2819061833776288</v>
+        <v>0.1375485813273869</v>
       </c>
       <c r="M4">
-        <v>0.1767492342256602</v>
+        <v>0.1568759726391633</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.43966723919138</v>
+        <v>2.426809908332373</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.491503434855133</v>
+        <v>0.685157937469512</v>
       </c>
       <c r="C5">
-        <v>0.08307885008617433</v>
+        <v>0.09280735946109786</v>
       </c>
       <c r="D5">
-        <v>0.1111688939081148</v>
+        <v>0.05861641438382748</v>
       </c>
       <c r="E5">
-        <v>0.1317091284700211</v>
+        <v>0.04955517099690887</v>
       </c>
       <c r="F5">
-        <v>2.034283263114084</v>
+        <v>0.9025694902963224</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>1.346888820318519</v>
+        <v>0.5917596335467437</v>
       </c>
       <c r="J5">
-        <v>0.1847155255154149</v>
+        <v>0.07475010927476688</v>
       </c>
       <c r="K5">
-        <v>0.2737532130160787</v>
+        <v>0.6249166632819794</v>
       </c>
       <c r="L5">
-        <v>0.2814978089924693</v>
+        <v>0.1346843964512203</v>
       </c>
       <c r="M5">
-        <v>0.1752877284184251</v>
+        <v>0.1510460375104046</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.449861444732804</v>
+        <v>2.432428917110485</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4901487735343437</v>
+        <v>0.6803042116069662</v>
       </c>
       <c r="C6">
-        <v>0.08298786992234852</v>
+        <v>0.0925543040842598</v>
       </c>
       <c r="D6">
-        <v>0.1111160786887382</v>
+        <v>0.05834483983602468</v>
       </c>
       <c r="E6">
-        <v>0.1317315395535541</v>
+        <v>0.04954328616898707</v>
       </c>
       <c r="F6">
-        <v>2.034820112912207</v>
+        <v>0.9025446477129222</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>1.347370502356842</v>
+        <v>0.5922981346385399</v>
       </c>
       <c r="J6">
-        <v>0.1847658107512311</v>
+        <v>0.07483337715771299</v>
       </c>
       <c r="K6">
-        <v>0.2724355088291901</v>
+        <v>0.6204833996457353</v>
       </c>
       <c r="L6">
-        <v>0.2814314767602895</v>
+        <v>0.1342105310341779</v>
       </c>
       <c r="M6">
-        <v>0.1750459971017868</v>
+        <v>0.1500789021118294</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.451587961510413</v>
+        <v>2.433416924254686</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4995645703204161</v>
+        <v>0.7140032960081157</v>
       </c>
       <c r="C7">
-        <v>0.08361805734098482</v>
+        <v>0.09430978299479875</v>
       </c>
       <c r="D7">
-        <v>0.1114859291125967</v>
+        <v>0.06023305901914711</v>
       </c>
       <c r="E7">
-        <v>0.1315790927379528</v>
+        <v>0.04962961179541736</v>
       </c>
       <c r="F7">
-        <v>2.031166839424813</v>
+        <v>0.9028315946710421</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>1.344072522572496</v>
+        <v>0.5886337577028229</v>
       </c>
       <c r="J7">
-        <v>0.1844202530587307</v>
+        <v>0.07426023685744809</v>
       </c>
       <c r="K7">
-        <v>0.2815848987151952</v>
+        <v>0.6512544900216852</v>
       </c>
       <c r="L7">
-        <v>0.2819005768786695</v>
+        <v>0.1375098370336403</v>
       </c>
       <c r="M7">
-        <v>0.1767294602136253</v>
+        <v>0.1567972851440338</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.439802457798777</v>
+        <v>2.426881984804297</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5414307117534918</v>
+        <v>0.8629906303844166</v>
       </c>
       <c r="C8">
-        <v>0.08636627417642018</v>
+        <v>0.1020347312863876</v>
       </c>
       <c r="D8">
-        <v>0.1131981527470032</v>
+        <v>0.06864810013832567</v>
       </c>
       <c r="E8">
-        <v>0.1309831909214676</v>
+        <v>0.05010677319824453</v>
       </c>
       <c r="F8">
-        <v>2.016851639868669</v>
+        <v>0.9070028904347254</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>1.330642389776742</v>
+        <v>0.5743186731976451</v>
       </c>
       <c r="J8">
-        <v>0.1829813016903303</v>
+        <v>0.07185139496076332</v>
       </c>
       <c r="K8">
-        <v>0.3220317433144544</v>
+        <v>0.7870790348459025</v>
       </c>
       <c r="L8">
-        <v>0.2841847456795605</v>
+        <v>0.1523304254866602</v>
       </c>
       <c r="M8">
-        <v>0.1842953793334026</v>
+        <v>0.1865914299936549</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.392701765992072</v>
+        <v>2.406234668863263</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6246275756859347</v>
+        <v>1.156791789194699</v>
       </c>
       <c r="C9">
-        <v>0.09163701885118058</v>
+        <v>0.1171395635875712</v>
       </c>
       <c r="D9">
-        <v>0.1168404206393703</v>
+        <v>0.0854858100500806</v>
       </c>
       <c r="E9">
-        <v>0.1300892273501493</v>
+        <v>0.05140268178765695</v>
       </c>
       <c r="F9">
-        <v>1.995254335404695</v>
+        <v>0.9263515604600343</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>1.308335210573723</v>
+        <v>0.5533046590577833</v>
       </c>
       <c r="J9">
-        <v>0.1804672160894434</v>
+        <v>0.06756791261841499</v>
       </c>
       <c r="K9">
-        <v>0.4015774117172555</v>
+        <v>1.054130429094158</v>
       </c>
       <c r="L9">
-        <v>0.2894273881682281</v>
+        <v>0.1824369409156503</v>
       </c>
       <c r="M9">
-        <v>0.1996164312810258</v>
+        <v>0.2456896532299133</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.31793894769794</v>
+        <v>2.397211876636106</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6863944578096834</v>
+        <v>1.374308177376321</v>
       </c>
       <c r="C10">
-        <v>0.09543664501082105</v>
+        <v>0.1282464013183358</v>
       </c>
       <c r="D10">
-        <v>0.1196872440471637</v>
+        <v>0.09810142888274243</v>
       </c>
       <c r="E10">
-        <v>0.1295985569413904</v>
+        <v>0.05258887143552826</v>
       </c>
       <c r="F10">
-        <v>1.983320862852821</v>
+        <v>0.9481057571463083</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>1.294395729772038</v>
+        <v>0.5425576487164108</v>
       </c>
       <c r="J10">
-        <v>0.1788066158602808</v>
+        <v>0.06469683567300333</v>
       </c>
       <c r="K10">
-        <v>0.4601389985057551</v>
+        <v>1.251352479159436</v>
       </c>
       <c r="L10">
-        <v>0.2937398086164222</v>
+        <v>0.2052991140208036</v>
       </c>
       <c r="M10">
-        <v>0.2111619338696968</v>
+        <v>0.2896676438491994</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.273714109866091</v>
+        <v>2.411800041901159</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7146279456864875</v>
+        <v>1.47378092992551</v>
       </c>
       <c r="C11">
-        <v>0.09714929256604421</v>
+        <v>0.1333099316220796</v>
       </c>
       <c r="D11">
-        <v>0.1210188971619601</v>
+        <v>0.103903330116097</v>
       </c>
       <c r="E11">
-        <v>0.1294111435265215</v>
+        <v>0.05318273260350992</v>
       </c>
       <c r="F11">
-        <v>1.97874356194832</v>
+        <v>0.9598112419885041</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>1.288584795770603</v>
+        <v>0.5387790392702385</v>
       </c>
       <c r="J11">
-        <v>0.1780914321349654</v>
+        <v>0.06345242213204383</v>
       </c>
       <c r="K11">
-        <v>0.4868021117781041</v>
+        <v>1.341437127551245</v>
       </c>
       <c r="L11">
-        <v>0.2958007054223231</v>
+        <v>0.2158863400801891</v>
       </c>
       <c r="M11">
-        <v>0.2164758458219964</v>
+        <v>0.3098311217575471</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.255913687310425</v>
+        <v>2.423523620733022</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7253381207083862</v>
+        <v>1.511537636795765</v>
       </c>
       <c r="C12">
-        <v>0.09779553660769125</v>
+        <v>0.1352297030946801</v>
       </c>
       <c r="D12">
-        <v>0.1215283726898377</v>
+        <v>0.1061102370350682</v>
       </c>
       <c r="E12">
-        <v>0.1293452998322309</v>
+        <v>0.05341571211965856</v>
       </c>
       <c r="F12">
-        <v>1.977132440150825</v>
+        <v>0.9645192522652692</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>1.286460482489915</v>
+        <v>0.5375160159535568</v>
       </c>
       <c r="J12">
-        <v>0.1778263792149257</v>
+        <v>0.06299022456985437</v>
       </c>
       <c r="K12">
-        <v>0.4969016026969086</v>
+        <v>1.375614950396482</v>
       </c>
       <c r="L12">
-        <v>0.2965952782312655</v>
+        <v>0.2199245563538597</v>
       </c>
       <c r="M12">
-        <v>0.2184968436715096</v>
+        <v>0.3174922513356364</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.249505954808399</v>
+        <v>2.428737351595231</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7230306695232116</v>
+        <v>1.503401895705451</v>
       </c>
       <c r="C13">
-        <v>0.09765645898420416</v>
+        <v>0.1348161301782937</v>
       </c>
       <c r="D13">
-        <v>0.1214184173467743</v>
+        <v>0.1056344887322496</v>
       </c>
       <c r="E13">
-        <v>0.1293592528261254</v>
+        <v>0.05336517080218073</v>
       </c>
       <c r="F13">
-        <v>1.977473992442242</v>
+        <v>0.9634927970410061</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>1.28691460536497</v>
+        <v>0.5377804290889188</v>
       </c>
       <c r="J13">
-        <v>0.1778832066243519</v>
+        <v>0.06308936245620878</v>
       </c>
       <c r="K13">
-        <v>0.4947263836167224</v>
+        <v>1.368251067695212</v>
       </c>
       <c r="L13">
-        <v>0.2964235248021225</v>
+        <v>0.2190535257454229</v>
       </c>
       <c r="M13">
-        <v>0.2180611995747768</v>
+        <v>0.3158410991236451</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.250871174795378</v>
+        <v>2.427579335786675</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7155087061835843</v>
+        <v>1.476885343291855</v>
       </c>
       <c r="C14">
-        <v>0.09720250565034405</v>
+        <v>0.1334678213561205</v>
       </c>
       <c r="D14">
-        <v>0.1210607079906083</v>
+        <v>0.1040846914762881</v>
       </c>
       <c r="E14">
-        <v>0.1294056239229224</v>
+        <v>0.05320173593647937</v>
       </c>
       <c r="F14">
-        <v>1.97860856608122</v>
+        <v>0.9601929628711616</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>1.288408501318621</v>
+        <v>0.538671716701316</v>
       </c>
       <c r="J14">
-        <v>0.1780695104772843</v>
+        <v>0.06341421478382969</v>
       </c>
       <c r="K14">
-        <v>0.4876329512115944</v>
+        <v>1.344247589324283</v>
       </c>
       <c r="L14">
-        <v>0.2958657922866337</v>
+        <v>0.2162179712239265</v>
       </c>
       <c r="M14">
-        <v>0.2166419403486657</v>
+        <v>0.3104608754424945</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.255379849628611</v>
+        <v>2.423936785508999</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7109037093407835</v>
+        <v>1.460655128476759</v>
       </c>
       <c r="C15">
-        <v>0.09692414611272682</v>
+        <v>0.1326422688229911</v>
       </c>
       <c r="D15">
-        <v>0.1208422771069309</v>
+        <v>0.1031367034958635</v>
       </c>
       <c r="E15">
-        <v>0.1294346944365472</v>
+        <v>0.05310269090912279</v>
       </c>
       <c r="F15">
-        <v>1.97931943328873</v>
+        <v>0.9582080519759941</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>1.289333471760159</v>
+        <v>0.5392397679401952</v>
       </c>
       <c r="J15">
-        <v>0.178184378201685</v>
+        <v>0.06361437800978287</v>
       </c>
       <c r="K15">
-        <v>0.4832883597726152</v>
+        <v>1.329553561914082</v>
       </c>
       <c r="L15">
-        <v>0.2955260054957876</v>
+        <v>0.2144849635789114</v>
       </c>
       <c r="M15">
-        <v>0.2157737360817862</v>
+        <v>0.3071687666176146</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.258184885502516</v>
+        <v>2.421807765553609</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6845519975019556</v>
+        <v>1.367819045127163</v>
       </c>
       <c r="C16">
-        <v>0.09532439910377377</v>
+        <v>0.1279157708308531</v>
       </c>
       <c r="D16">
-        <v>0.1196009492592367</v>
+        <v>0.09772359533108244</v>
       </c>
       <c r="E16">
-        <v>0.1296115232896575</v>
+        <v>0.05255117783530316</v>
       </c>
       <c r="F16">
-        <v>1.983637112304081</v>
+        <v>0.9473784640212912</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>1.294786150083844</v>
+        <v>0.5428276202195406</v>
       </c>
       <c r="J16">
-        <v>0.1788541631946803</v>
+        <v>0.06477941588282743</v>
       </c>
       <c r="K16">
-        <v>0.4583969175753282</v>
+        <v>1.245473625492849</v>
       </c>
       <c r="L16">
-        <v>0.2936071106553229</v>
+        <v>0.2046111602551832</v>
       </c>
       <c r="M16">
-        <v>0.2108158878356079</v>
+        <v>0.2883533364606308</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.27492401461538</v>
+        <v>2.411139837658141</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.668420256885554</v>
+        <v>1.311010333748897</v>
       </c>
       <c r="C17">
-        <v>0.09433893726060205</v>
+        <v>0.1250195394755025</v>
       </c>
       <c r="D17">
-        <v>0.1188487722466789</v>
+        <v>0.09441951218621369</v>
       </c>
       <c r="E17">
-        <v>0.1297291546489259</v>
+        <v>0.05222694356079671</v>
       </c>
       <c r="F17">
-        <v>1.986503754494471</v>
+        <v>0.9412088126545228</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>1.298266931834799</v>
+        <v>0.5453186888500205</v>
       </c>
       <c r="J17">
-        <v>0.1792753491491634</v>
+        <v>0.06551003707043268</v>
       </c>
       <c r="K17">
-        <v>0.4431323405392504</v>
+        <v>1.193995598021417</v>
       </c>
       <c r="L17">
-        <v>0.2924552538720206</v>
+        <v>0.1986033161699297</v>
       </c>
       <c r="M17">
-        <v>0.2077901294716895</v>
+        <v>0.2768531233419438</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.285786271864851</v>
+        <v>2.405927935566922</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6591544952546826</v>
+        <v>1.278383888188529</v>
       </c>
       <c r="C18">
-        <v>0.09377063787370332</v>
+        <v>0.1233546887694388</v>
       </c>
       <c r="D18">
-        <v>0.1184195901471696</v>
+        <v>0.0925249696041206</v>
       </c>
       <c r="E18">
-        <v>0.1298001835782081</v>
+        <v>0.05204554089039881</v>
       </c>
       <c r="F18">
-        <v>1.98823271193433</v>
+        <v>0.9378295349405548</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>1.300318895761542</v>
+        <v>0.5468554678436952</v>
       </c>
       <c r="J18">
-        <v>0.1795213917705087</v>
+        <v>0.06593606349516445</v>
       </c>
       <c r="K18">
-        <v>0.434354773542708</v>
+        <v>1.16442061366061</v>
       </c>
       <c r="L18">
-        <v>0.2918020753815966</v>
+        <v>0.1951652374328887</v>
       </c>
       <c r="M18">
-        <v>0.2060556197747232</v>
+        <v>0.2702531549991392</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.292252128308036</v>
+        <v>2.403406317618561</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6560194856732835</v>
+        <v>1.267345061748301</v>
       </c>
       <c r="C19">
-        <v>0.09357796664545504</v>
+        <v>0.1227911463629709</v>
       </c>
       <c r="D19">
-        <v>0.1182748708207342</v>
+        <v>0.09188449631913187</v>
       </c>
       <c r="E19">
-        <v>0.1298248122954622</v>
+        <v>0.05198498627727588</v>
       </c>
       <c r="F19">
-        <v>1.988831877933478</v>
+        <v>0.9367140064467776</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>1.301022230130979</v>
+        <v>0.547393412341048</v>
       </c>
       <c r="J19">
-        <v>0.1796053485160636</v>
+        <v>0.06608129858976586</v>
       </c>
       <c r="K19">
-        <v>0.4313832381510281</v>
+        <v>1.154412491021048</v>
       </c>
       <c r="L19">
-        <v>0.2915825274860495</v>
+        <v>0.1940041007973434</v>
       </c>
       <c r="M19">
-        <v>0.205469349957589</v>
+        <v>0.2680209475966358</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.294478839225519</v>
+        <v>2.402633059883499</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.670136189742351</v>
+        <v>1.317052613341104</v>
       </c>
       <c r="C20">
-        <v>0.0944439955071914</v>
+        <v>0.1253277411012306</v>
       </c>
       <c r="D20">
-        <v>0.1189284861115425</v>
+        <v>0.09477062346577725</v>
       </c>
       <c r="E20">
-        <v>0.1297162839143606</v>
+        <v>0.05226093015054722</v>
       </c>
       <c r="F20">
-        <v>1.986190302819999</v>
+        <v>0.9418479491498104</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>1.297891231735406</v>
+        <v>0.5450426908221786</v>
       </c>
       <c r="J20">
-        <v>0.1792301212821172</v>
+        <v>0.06543166050920046</v>
       </c>
       <c r="K20">
-        <v>0.4447570558962752</v>
+        <v>1.199471938628221</v>
       </c>
       <c r="L20">
-        <v>0.2925769051777038</v>
+        <v>0.1992410377238016</v>
       </c>
       <c r="M20">
-        <v>0.2081116247029868</v>
+        <v>0.2780758034509603</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.284607388649306</v>
+        <v>2.406433173101874</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7177175854833138</v>
+        <v>1.48467138440401</v>
       </c>
       <c r="C21">
-        <v>0.09733590531202196</v>
+        <v>0.1338637830831715</v>
       </c>
       <c r="D21">
-        <v>0.1211656350372152</v>
+        <v>0.1045396305070057</v>
       </c>
       <c r="E21">
-        <v>0.1293918646694561</v>
+        <v>0.05324951852460202</v>
       </c>
       <c r="F21">
-        <v>1.978271999448111</v>
+        <v>0.9611546039078505</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>1.287967641517113</v>
+        <v>0.5384053004614628</v>
       </c>
       <c r="J21">
-        <v>0.1780146319871667</v>
+        <v>0.06331855117936414</v>
       </c>
       <c r="K21">
-        <v>0.4897163942838745</v>
+        <v>1.351296137223386</v>
       </c>
       <c r="L21">
-        <v>0.2960292284740973</v>
+        <v>0.2170500356475316</v>
       </c>
       <c r="M21">
-        <v>0.2170585753449856</v>
+        <v>0.3120404563929213</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.254046510705138</v>
+        <v>2.424985323260245</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7489238328769545</v>
+        <v>1.594742818473065</v>
       </c>
       <c r="C22">
-        <v>0.09921252784080536</v>
+        <v>0.139456505817634</v>
       </c>
       <c r="D22">
-        <v>0.1226580668540151</v>
+        <v>0.1109820774702541</v>
       </c>
       <c r="E22">
-        <v>0.1292097044650387</v>
+        <v>0.05394296447778046</v>
       </c>
       <c r="F22">
-        <v>1.973809122807992</v>
+        <v>0.9753856154463563</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>1.281925890437329</v>
+        <v>0.5350499528066308</v>
       </c>
       <c r="J22">
-        <v>0.1772538747357819</v>
+        <v>0.06199025995488761</v>
       </c>
       <c r="K22">
-        <v>0.5191156730864463</v>
+        <v>1.450905413809977</v>
       </c>
       <c r="L22">
-        <v>0.2983679853818728</v>
+        <v>0.2288597544926034</v>
       </c>
       <c r="M22">
-        <v>0.2229567667279753</v>
+        <v>0.3343894103527916</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.236013438279059</v>
+        <v>2.441645097861283</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7322587263014384</v>
+        <v>1.53594315233957</v>
       </c>
       <c r="C23">
-        <v>0.09821217356642364</v>
+        <v>0.1364700285730152</v>
       </c>
       <c r="D23">
-        <v>0.1218587723577258</v>
+        <v>0.1075380541634416</v>
       </c>
       <c r="E23">
-        <v>0.1293042011182202</v>
+        <v>0.05356842501497816</v>
       </c>
       <c r="F23">
-        <v>1.976125948625921</v>
+        <v>0.9676373847122619</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>1.285109897716268</v>
+        <v>0.5367480118666279</v>
       </c>
       <c r="J23">
-        <v>0.1776568320400127</v>
+        <v>0.0626943089799461</v>
       </c>
       <c r="K23">
-        <v>0.5034234749898019</v>
+        <v>1.397702833832966</v>
       </c>
       <c r="L23">
-        <v>0.2971122351566606</v>
+        <v>0.22254033341558</v>
       </c>
       <c r="M23">
-        <v>0.2198041893445648</v>
+        <v>0.3224464878427966</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.245460622178598</v>
+        <v>2.432323673662097</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6693603896849822</v>
+        <v>1.314320794949992</v>
       </c>
       <c r="C24">
-        <v>0.09439650410529055</v>
+        <v>0.1251884024813847</v>
       </c>
       <c r="D24">
-        <v>0.1188924373314677</v>
+        <v>0.09461187048317043</v>
       </c>
       <c r="E24">
-        <v>0.1297220921780049</v>
+        <v>0.05224554924931191</v>
       </c>
       <c r="F24">
-        <v>1.986331762349749</v>
+        <v>0.9415584742156398</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>1.298060927454848</v>
+        <v>0.5451671442441217</v>
       </c>
       <c r="J24">
-        <v>0.179250556660266</v>
+        <v>0.06546707593096457</v>
       </c>
       <c r="K24">
-        <v>0.4440225275173191</v>
+        <v>1.196996022327454</v>
       </c>
       <c r="L24">
-        <v>0.2925218784585795</v>
+        <v>0.198952674412034</v>
       </c>
       <c r="M24">
-        <v>0.2079662610014665</v>
+        <v>0.27752299368683</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.285139673319719</v>
+        <v>2.406203279594877</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6020059146132155</v>
+        <v>1.077069652197252</v>
       </c>
       <c r="C25">
-        <v>0.09022388613967536</v>
+        <v>0.1130544336921062</v>
       </c>
       <c r="D25">
-        <v>0.1158248966153437</v>
+        <v>0.08089080033370522</v>
       </c>
       <c r="E25">
-        <v>0.1303018029127507</v>
+        <v>0.05101209313196087</v>
       </c>
       <c r="F25">
-        <v>2.000405168270873</v>
+        <v>0.9198487281140544</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>1.313939231779162</v>
+        <v>0.5581950874444601</v>
       </c>
       <c r="J25">
-        <v>0.1811145142223447</v>
+        <v>0.06867881751949056</v>
       </c>
       <c r="K25">
-        <v>0.3800357570528092</v>
+        <v>0.9817521519242121</v>
       </c>
       <c r="L25">
-        <v>0.2879278779316721</v>
+        <v>0.1741699811626489</v>
       </c>
       <c r="M25">
-        <v>0.1954204662692653</v>
+        <v>0.2296152670089455</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.336282699052873</v>
+        <v>2.396081292286169</v>
       </c>
     </row>
   </sheetData>
